--- a/QA_Weekly_TASK1_(Code_Competence_1)/Praktikum/Muhamad_Nur_Fajjri_Z_TEST_CASE.xlsx
+++ b/QA_Weekly_TASK1_(Code_Competence_1)/Praktikum/Muhamad_Nur_Fajjri_Z_TEST_CASE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.MATERI KULIAH\SEMESTER-8_QE_ALTERRA\QE_Muhamad-Nur-Fajjri-Z\QA_Weekly_TASK1_(Code_Competence_1)\Praktikum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DC5969-BE75-470A-8183-1AD72FC13C5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9D50BB-3E67-478F-9B12-954B24FD9AAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{1E79758F-6DCE-4028-A25E-D68964AEB67C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -112,6 +112,30 @@
   </si>
   <si>
     <t>https://docs.google.com/document/d/1jE6kPl2cH4U6AuZZPVZsmmqqURtDlagV5c9WQ6vCP9A/edit</t>
+  </si>
+  <si>
+    <t>Mencoba login dengan akun yang diberikan</t>
+  </si>
+  <si>
+    <t>Sesuai yang diharapkan</t>
+  </si>
+  <si>
+    <t>Pengguna bisa masuk dengan akun yang diberikan</t>
+  </si>
+  <si>
+    <t>Mencoba login dengan akun yang diberikan namun salah username</t>
+  </si>
+  <si>
+    <t>Mencoba login dengan akun yang diberikan namun salah password</t>
+  </si>
+  <si>
+    <t>Pengguna tidak bisa masuk</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -334,6 +358,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -344,12 +371,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -365,61 +392,58 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -452,8 +476,8 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>188464</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>55906</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>14493</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -499,6 +523,50 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>86592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>405917</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>146847</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F84E1252-C8C6-4802-A88F-2159F25A8A08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5836228"/>
+          <a:ext cx="12892326" cy="3333392"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -805,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C36661-0104-44D0-8912-6232ACE965BE}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -824,50 +892,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
       <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="29" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="18"/>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="33" t="s">
+      <c r="I2" s="28"/>
+      <c r="J2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="34"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
@@ -883,10 +951,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
@@ -915,37 +983,37 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37">
+      <c r="E6" s="34"/>
+      <c r="F6" s="35">
         <v>44983</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39" t="s">
+      <c r="G6" s="36"/>
+      <c r="H6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="40"/>
-      <c r="J6" s="28" t="s">
+      <c r="I6" s="38"/>
+      <c r="J6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="29"/>
+      <c r="K6" s="26"/>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="5"/>
@@ -962,43 +1030,43 @@
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="18"/>
       <c r="E9" s="3"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
       <c r="K9" s="18"/>
       <c r="M9" s="2"/>
       <c r="P9"/>
@@ -1007,19 +1075,19 @@
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="18"/>
       <c r="E10" s="3"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
       <c r="K10" s="18"/>
       <c r="M10" s="2"/>
     </row>
@@ -1027,17 +1095,17 @@
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="18"/>
       <c r="E11" s="3"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="18"/>
       <c r="M11" s="2"/>
     </row>
@@ -1045,17 +1113,17 @@
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="18"/>
       <c r="E12" s="3"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
       <c r="K12" s="18"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1089,160 +1157,184 @@
       <c r="K14" s="3"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="19" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="19" t="s">
+      <c r="E16" s="21"/>
+      <c r="F16" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="19" t="s">
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+    </row>
+    <row r="18" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B18" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>2</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B19" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>3</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B20" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>4</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>5</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>6</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>7</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>8</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B27" s="12"/>
@@ -1302,6 +1394,13 @@
     <mergeCell ref="F25:H25"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -1316,13 +1415,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
     <mergeCell ref="G11:K11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="G12:K12"/>
